--- a/v8/Entities/Customer (Cliente).xlsx
+++ b/v8/Entities/Customer (Cliente).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPastaDeTrabalho" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FullDevProjects\v3\Entities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FullDevProjects\v8\Entities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B49BA45-7135-4B76-A9B0-D4F32238D707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769C940C-419F-468E-8DDF-7C1ED13A1F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,7 +864,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1078,163 +1078,163 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>255</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>50</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>150</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>10</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>50</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>150</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>36</v>
       </c>
     </row>
